--- a/output_from_HPMC E3/data_tables_from_HPMC E3/stats_analysis_output_replicate_HPMC E3.xlsx
+++ b/output_from_HPMC E3/data_tables_from_HPMC E3/stats_analysis_output_replicate_HPMC E3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="18">
   <si>
     <t>index</t>
   </si>
@@ -58,9 +58,6 @@
     <t>HPMC E3</t>
   </si>
   <si>
-    <t>4.6053 .. 4.3294</t>
-  </si>
-  <si>
     <t>3.7087 .. 3.5131</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
   </si>
   <si>
     <t>3.2006 .. 3.0007</t>
-  </si>
-  <si>
-    <t>1.3243 .. 1.0076</t>
   </si>
 </sst>
 </file>
@@ -431,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -495,31 +489,31 @@
         <v>0.25</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2">
-        <v>4.46735</v>
+        <v>3.6109</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.0004075069051289404</v>
+        <v>0.0005477632608467262</v>
       </c>
       <c r="K2">
         <v>0.9</v>
       </c>
       <c r="L2">
-        <v>0.0003667562146160464</v>
+        <v>0.0004929869347620536</v>
       </c>
       <c r="M2">
-        <v>3.023052045797528E-06</v>
+        <v>1.817151600150474E-06</v>
       </c>
       <c r="N2">
-        <v>0.002457321569613053</v>
+        <v>0.001564954981664872</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -527,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -539,31 +533,31 @@
         <v>0.25</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3">
-        <v>3.6109</v>
+        <v>3.4779</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.0005477632608467262</v>
+        <v>0.0003803522357745408</v>
       </c>
       <c r="K3">
         <v>0.9</v>
       </c>
       <c r="L3">
-        <v>0.0004929869347620536</v>
+        <v>0.0003423170121970867</v>
       </c>
       <c r="M3">
-        <v>1.817151600150474E-06</v>
+        <v>2.033397242232306E-05</v>
       </c>
       <c r="N3">
-        <v>0.001564954981664872</v>
+        <v>0.005058650037685402</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -571,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -583,31 +577,31 @@
         <v>0.25</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
       <c r="H4">
-        <v>3.4779</v>
+        <v>3.3526</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.0003803522357745408</v>
+        <v>0.004806812830301806</v>
       </c>
       <c r="K4">
         <v>0.9</v>
       </c>
       <c r="L4">
-        <v>0.0003423170121970867</v>
+        <v>0.004326131547271626</v>
       </c>
       <c r="M4">
-        <v>2.033397242232306E-05</v>
+        <v>5.956937953073805E-06</v>
       </c>
       <c r="N4">
-        <v>0.005058650037685402</v>
+        <v>0.3762755045716653</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -615,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -627,31 +621,31 @@
         <v>0.25</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5">
-        <v>3.3526</v>
+        <v>3.10065</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.004806812830301806</v>
+        <v>0.01084886081223595</v>
       </c>
       <c r="K5">
         <v>0.9</v>
       </c>
       <c r="L5">
-        <v>0.004326131547271626</v>
+        <v>0.009763974731012353</v>
       </c>
       <c r="M5">
-        <v>5.956937953073805E-06</v>
+        <v>2.06465447017755E-05</v>
       </c>
       <c r="N5">
-        <v>0.3762755045716653</v>
+        <v>0.6313193151103987</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -659,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -668,34 +662,34 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H6">
-        <v>3.10065</v>
+        <v>3.6109</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.01084886081223595</v>
+        <v>0.0005652792553770311</v>
       </c>
       <c r="K6">
         <v>0.9</v>
       </c>
       <c r="L6">
-        <v>0.009763974731012353</v>
+        <v>0.0005087513298393279</v>
       </c>
       <c r="M6">
-        <v>2.06465447017755E-05</v>
+        <v>1.817151600150474E-06</v>
       </c>
       <c r="N6">
-        <v>0.6313193151103987</v>
+        <v>0.001564954981664872</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -703,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -712,34 +706,34 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>1.16595</v>
+        <v>3.4779</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.002191543973771363</v>
+        <v>0.0007689456876148659</v>
       </c>
       <c r="K7">
         <v>0.9</v>
       </c>
       <c r="L7">
-        <v>0.001972389576394227</v>
+        <v>0.0006920511188533793</v>
       </c>
       <c r="M7">
-        <v>2.164000308753001E-06</v>
+        <v>2.033397242232306E-05</v>
       </c>
       <c r="N7">
-        <v>0.1272217079126413</v>
+        <v>0.005058650037685402</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -747,7 +741,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -759,31 +753,31 @@
         <v>0.5</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>4.46735</v>
+        <v>3.3526</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.0008228943099656908</v>
+        <v>0.004027879716560116</v>
       </c>
       <c r="K8">
         <v>0.9</v>
       </c>
       <c r="L8">
-        <v>0.0007406048789691217</v>
+        <v>0.003625091744904104</v>
       </c>
       <c r="M8">
-        <v>3.023052045797528E-06</v>
+        <v>5.956937953073805E-06</v>
       </c>
       <c r="N8">
-        <v>0.002457321569613053</v>
+        <v>0.3762755045716653</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -791,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -803,31 +797,31 @@
         <v>0.5</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9">
-        <v>3.6109</v>
+        <v>3.10065</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.0005652792553770311</v>
+        <v>0.009203071682575845</v>
       </c>
       <c r="K9">
         <v>0.9</v>
       </c>
       <c r="L9">
-        <v>0.0005087513298393279</v>
+        <v>0.008282764514318261</v>
       </c>
       <c r="M9">
-        <v>1.817151600150474E-06</v>
+        <v>2.06465447017755E-05</v>
       </c>
       <c r="N9">
-        <v>0.001564954981664872</v>
+        <v>0.6313193151103987</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -835,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -844,34 +838,34 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10">
-        <v>3.4779</v>
+        <v>3.6109</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.0007689456876148659</v>
+        <v>0.001395625721830221</v>
       </c>
       <c r="K10">
         <v>0.9</v>
       </c>
       <c r="L10">
-        <v>0.0006920511188533793</v>
+        <v>0.001256063149647199</v>
       </c>
       <c r="M10">
-        <v>2.033397242232306E-05</v>
+        <v>1.817151600150474E-06</v>
       </c>
       <c r="N10">
-        <v>0.005058650037685402</v>
+        <v>0.001564954981664872</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -879,7 +873,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -888,34 +882,34 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>3.3526</v>
+        <v>3.4779</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.004027879716560116</v>
+        <v>0.005621457646717994</v>
       </c>
       <c r="K11">
         <v>0.9</v>
       </c>
       <c r="L11">
-        <v>0.003625091744904104</v>
+        <v>0.005059311882046195</v>
       </c>
       <c r="M11">
-        <v>5.956937953073805E-06</v>
+        <v>2.033397242232306E-05</v>
       </c>
       <c r="N11">
-        <v>0.3762755045716653</v>
+        <v>0.005058650037685402</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -923,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -932,34 +926,34 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H12">
-        <v>3.10065</v>
+        <v>3.3526</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.009203071682575845</v>
+        <v>0.0035701949189422</v>
       </c>
       <c r="K12">
         <v>0.9</v>
       </c>
       <c r="L12">
-        <v>0.008282764514318261</v>
+        <v>0.00321317542704798</v>
       </c>
       <c r="M12">
-        <v>2.06465447017755E-05</v>
+        <v>5.956937953073805E-06</v>
       </c>
       <c r="N12">
-        <v>0.6313193151103987</v>
+        <v>0.3762755045716653</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -967,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -976,34 +970,34 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>1.16595</v>
+        <v>3.10065</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.0007453473948978088</v>
+        <v>0.008994125432773507</v>
       </c>
       <c r="K13">
         <v>0.9</v>
       </c>
       <c r="L13">
-        <v>0.000670812655408028</v>
+        <v>0.008094712889496156</v>
       </c>
       <c r="M13">
-        <v>2.164000308753001E-06</v>
+        <v>2.06465447017755E-05</v>
       </c>
       <c r="N13">
-        <v>0.1272217079126413</v>
+        <v>0.6313193151103987</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1011,7 +1005,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1020,34 +1014,34 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14">
-        <v>4.46735</v>
+        <v>3.6109</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.0002051357387822458</v>
+        <v>0.002432431364629188</v>
       </c>
       <c r="K14">
         <v>0.9</v>
       </c>
       <c r="L14">
-        <v>0.0001846221649040212</v>
+        <v>0.002189188228166269</v>
       </c>
       <c r="M14">
-        <v>3.023052045797528E-06</v>
+        <v>1.817151600150474E-06</v>
       </c>
       <c r="N14">
-        <v>0.002457321569613053</v>
+        <v>0.001564954981664872</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1055,7 +1049,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1064,34 +1058,34 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
       </c>
       <c r="H15">
-        <v>3.6109</v>
+        <v>3.4779</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.001395625721830221</v>
+        <v>0.004011940784697489</v>
       </c>
       <c r="K15">
         <v>0.9</v>
       </c>
       <c r="L15">
-        <v>0.001256063149647199</v>
+        <v>0.00361074670622774</v>
       </c>
       <c r="M15">
-        <v>1.817151600150474E-06</v>
+        <v>2.033397242232306E-05</v>
       </c>
       <c r="N15">
-        <v>0.001564954981664872</v>
+        <v>0.005058650037685402</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1099,7 +1093,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -1108,34 +1102,34 @@
         <v>9</v>
       </c>
       <c r="E16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
       </c>
       <c r="H16">
-        <v>3.4779</v>
+        <v>3.3526</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.005621457646717994</v>
+        <v>0.003966137475014213</v>
       </c>
       <c r="K16">
         <v>0.9</v>
       </c>
       <c r="L16">
-        <v>0.005059311882046195</v>
+        <v>0.003569523727512792</v>
       </c>
       <c r="M16">
-        <v>2.033397242232306E-05</v>
+        <v>5.956937953073805E-06</v>
       </c>
       <c r="N16">
-        <v>0.005058650037685402</v>
+        <v>0.3762755045716653</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1143,7 +1137,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -1152,34 +1146,34 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
       <c r="H17">
-        <v>3.3526</v>
+        <v>3.10065</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.0035701949189422</v>
+        <v>0.007649759554957405</v>
       </c>
       <c r="K17">
         <v>0.9</v>
       </c>
       <c r="L17">
-        <v>0.00321317542704798</v>
+        <v>0.006884783599461665</v>
       </c>
       <c r="M17">
-        <v>5.956937953073805E-06</v>
+        <v>2.06465447017755E-05</v>
       </c>
       <c r="N17">
-        <v>0.3762755045716653</v>
+        <v>0.6313193151103987</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1187,7 +1181,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -1196,34 +1190,34 @@
         <v>9</v>
       </c>
       <c r="E18">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H18">
-        <v>3.10065</v>
+        <v>3.6109</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.008994125432773507</v>
+        <v>0.001937697651422895</v>
       </c>
       <c r="K18">
         <v>0.9</v>
       </c>
       <c r="L18">
-        <v>0.008094712889496156</v>
+        <v>0.001743927886280605</v>
       </c>
       <c r="M18">
-        <v>2.06465447017755E-05</v>
+        <v>1.817151600150474E-06</v>
       </c>
       <c r="N18">
-        <v>0.6313193151103987</v>
+        <v>0.001564954981664872</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1231,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -1240,34 +1234,34 @@
         <v>9</v>
       </c>
       <c r="E19">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H19">
-        <v>1.16595</v>
+        <v>3.4779</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.0007103926792752428</v>
+        <v>0.0001647243643322831</v>
       </c>
       <c r="K19">
         <v>0.9</v>
       </c>
       <c r="L19">
-        <v>0.0006393534113477185</v>
+        <v>0.0001482519278990548</v>
       </c>
       <c r="M19">
-        <v>2.164000308753001E-06</v>
+        <v>2.033397242232306E-05</v>
       </c>
       <c r="N19">
-        <v>0.1272217079126413</v>
+        <v>0.005058650037685402</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1275,7 +1269,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -1284,34 +1278,34 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H20">
-        <v>4.46735</v>
+        <v>3.3526</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.002613692622213597</v>
+        <v>0.004479805738862539</v>
       </c>
       <c r="K20">
         <v>0.9</v>
       </c>
       <c r="L20">
-        <v>0.002352323359992237</v>
+        <v>0.004031825164976285</v>
       </c>
       <c r="M20">
-        <v>3.023052045797528E-06</v>
+        <v>5.956937953073805E-06</v>
       </c>
       <c r="N20">
-        <v>0.002457321569613053</v>
+        <v>0.3762755045716653</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1319,7 +1313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -1328,34 +1322,34 @@
         <v>9</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H21">
-        <v>3.6109</v>
+        <v>3.10065</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.002432431364629188</v>
+        <v>0.006189179731476757</v>
       </c>
       <c r="K21">
         <v>0.9</v>
       </c>
       <c r="L21">
-        <v>0.002189188228166269</v>
+        <v>0.005570261758329082</v>
       </c>
       <c r="M21">
-        <v>1.817151600150474E-06</v>
+        <v>2.06465447017755E-05</v>
       </c>
       <c r="N21">
-        <v>0.001564954981664872</v>
+        <v>0.6313193151103987</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1363,7 +1357,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -1372,34 +1366,34 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H22">
-        <v>3.4779</v>
+        <v>3.6109</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.004011940784697489</v>
+        <v>0.001435665700338855</v>
       </c>
       <c r="K22">
         <v>0.9</v>
       </c>
       <c r="L22">
-        <v>0.00361074670622774</v>
+        <v>0.001292099130304969</v>
       </c>
       <c r="M22">
-        <v>2.033397242232306E-05</v>
+        <v>1.817151600150474E-06</v>
       </c>
       <c r="N22">
-        <v>0.005058650037685402</v>
+        <v>0.001564954981664872</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1407,7 +1401,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -1416,34 +1410,34 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H23">
-        <v>3.3526</v>
+        <v>3.4779</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.003966137475014213</v>
+        <v>0.002740862126082492</v>
       </c>
       <c r="K23">
         <v>0.9</v>
       </c>
       <c r="L23">
-        <v>0.003569523727512792</v>
+        <v>0.002466775913474243</v>
       </c>
       <c r="M23">
-        <v>5.956937953073805E-06</v>
+        <v>2.033397242232306E-05</v>
       </c>
       <c r="N23">
-        <v>0.3762755045716653</v>
+        <v>0.005058650037685402</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1451,7 +1445,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -1460,34 +1454,34 @@
         <v>9</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H24">
-        <v>3.10065</v>
+        <v>3.3526</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.007649759554957405</v>
+        <v>0.004612452687741681</v>
       </c>
       <c r="K24">
         <v>0.9</v>
       </c>
       <c r="L24">
-        <v>0.006884783599461665</v>
+        <v>0.004151207418967513</v>
       </c>
       <c r="M24">
-        <v>2.06465447017755E-05</v>
+        <v>5.956937953073805E-06</v>
       </c>
       <c r="N24">
-        <v>0.6313193151103987</v>
+        <v>0.3762755045716653</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1495,7 +1489,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -1504,34 +1498,34 @@
         <v>9</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H25">
-        <v>1.16595</v>
+        <v>3.10065</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.001858272597872548</v>
+        <v>0.007749808542038974</v>
       </c>
       <c r="K25">
         <v>0.9</v>
       </c>
       <c r="L25">
-        <v>0.001672445338085294</v>
+        <v>0.006974827687835077</v>
       </c>
       <c r="M25">
-        <v>2.164000308753001E-06</v>
+        <v>2.06465447017755E-05</v>
       </c>
       <c r="N25">
-        <v>0.1272217079126413</v>
+        <v>0.6313193151103987</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1539,7 +1533,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -1548,34 +1542,34 @@
         <v>9</v>
       </c>
       <c r="E26">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26">
-        <v>4.46735</v>
+        <v>3.6109</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.001912373228786934</v>
+        <v>0.003545612255305446</v>
       </c>
       <c r="K26">
         <v>0.9</v>
       </c>
       <c r="L26">
-        <v>0.001721135905908241</v>
+        <v>0.003191051029774901</v>
       </c>
       <c r="M26">
-        <v>3.023052045797528E-06</v>
+        <v>1.817151600150474E-06</v>
       </c>
       <c r="N26">
-        <v>0.002457321569613053</v>
+        <v>0.001564954981664872</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1583,7 +1577,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -1592,34 +1586,34 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
       </c>
       <c r="H27">
-        <v>3.6109</v>
+        <v>3.4779</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0.001937697651422895</v>
+        <v>0.005183287681887639</v>
       </c>
       <c r="K27">
         <v>0.9</v>
       </c>
       <c r="L27">
-        <v>0.001743927886280605</v>
+        <v>0.004664958913698876</v>
       </c>
       <c r="M27">
-        <v>1.817151600150474E-06</v>
+        <v>2.033397242232306E-05</v>
       </c>
       <c r="N27">
-        <v>0.001564954981664872</v>
+        <v>0.005058650037685402</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1627,7 +1621,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -1636,34 +1630,34 @@
         <v>9</v>
       </c>
       <c r="E28">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
       </c>
       <c r="H28">
-        <v>3.4779</v>
+        <v>3.3526</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.0001647243643322831</v>
+        <v>0.006948117030600796</v>
       </c>
       <c r="K28">
         <v>0.9</v>
       </c>
       <c r="L28">
-        <v>0.0001482519278990548</v>
+        <v>0.006253305327540716</v>
       </c>
       <c r="M28">
-        <v>2.033397242232306E-05</v>
+        <v>5.956937953073805E-06</v>
       </c>
       <c r="N28">
-        <v>0.005058650037685402</v>
+        <v>0.3762755045716653</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1671,7 +1665,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -1680,34 +1674,34 @@
         <v>9</v>
       </c>
       <c r="E29">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
       </c>
       <c r="H29">
-        <v>3.3526</v>
+        <v>3.10065</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>0.004479805738862539</v>
+        <v>0.01227784286395789</v>
       </c>
       <c r="K29">
         <v>0.9</v>
       </c>
       <c r="L29">
-        <v>0.004031825164976285</v>
+        <v>0.0110500585775621</v>
       </c>
       <c r="M29">
-        <v>5.956937953073805E-06</v>
+        <v>2.06465447017755E-05</v>
       </c>
       <c r="N29">
-        <v>0.3762755045716653</v>
+        <v>0.6313193151103987</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1715,7 +1709,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -1724,34 +1718,34 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H30">
-        <v>3.10065</v>
+        <v>3.6109</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>0.006189179731476757</v>
+        <v>0.002163612856185402</v>
       </c>
       <c r="K30">
         <v>0.9</v>
       </c>
       <c r="L30">
-        <v>0.005570261758329082</v>
+        <v>0.001947251570566862</v>
       </c>
       <c r="M30">
-        <v>2.06465447017755E-05</v>
+        <v>1.359447035349065E-06</v>
       </c>
       <c r="N30">
-        <v>0.6313193151103987</v>
+        <v>0.009488900570102659</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1759,7 +1753,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -1768,34 +1762,34 @@
         <v>9</v>
       </c>
       <c r="E31">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H31">
-        <v>1.16595</v>
+        <v>3.4779</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31">
-        <v>0.001485662025925839</v>
+        <v>0.001608505886273519</v>
       </c>
       <c r="K31">
         <v>0.9</v>
       </c>
       <c r="L31">
-        <v>0.001337095823333255</v>
+        <v>0.001447655297646167</v>
       </c>
       <c r="M31">
-        <v>2.164000308753001E-06</v>
+        <v>6.487929362422714E-06</v>
       </c>
       <c r="N31">
-        <v>0.1272217079126413</v>
+        <v>0.01150692739529692</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1803,7 +1797,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -1812,34 +1806,34 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H32">
-        <v>4.46735</v>
+        <v>3.3526</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>0.0005917765049685323</v>
+        <v>0.0006018627387553398</v>
       </c>
       <c r="K32">
         <v>0.9</v>
       </c>
       <c r="L32">
-        <v>0.0005325988544716791</v>
+        <v>0.0005416764648798058</v>
       </c>
       <c r="M32">
-        <v>3.023052045797528E-06</v>
+        <v>4.743423745700361E-06</v>
       </c>
       <c r="N32">
-        <v>0.002457321569613053</v>
+        <v>0.008937062159181684</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1847,7 +1841,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -1856,34 +1850,34 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H33">
-        <v>3.6109</v>
+        <v>3.10065</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>0.001435665700338855</v>
+        <v>-0.00121036042636405</v>
       </c>
       <c r="K33">
         <v>0.9</v>
       </c>
       <c r="L33">
-        <v>0.001292099130304969</v>
+        <v>-0.001089324383727645</v>
       </c>
       <c r="M33">
-        <v>1.817151600150474E-06</v>
+        <v>3.360688748986785E-05</v>
       </c>
       <c r="N33">
-        <v>0.001564954981664872</v>
+        <v>0.01391925871251052</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1891,7 +1885,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -1900,34 +1894,34 @@
         <v>9</v>
       </c>
       <c r="E34">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H34">
-        <v>3.4779</v>
+        <v>3.6109</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>0.002740862126082492</v>
+        <v>0.003143592320390266</v>
       </c>
       <c r="K34">
         <v>0.9</v>
       </c>
       <c r="L34">
-        <v>0.002466775913474243</v>
+        <v>0.002829233088351239</v>
       </c>
       <c r="M34">
-        <v>2.033397242232306E-05</v>
+        <v>1.359447035349065E-06</v>
       </c>
       <c r="N34">
-        <v>0.005058650037685402</v>
+        <v>0.009488900570102659</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1935,7 +1929,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -1944,34 +1938,34 @@
         <v>9</v>
       </c>
       <c r="E35">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H35">
-        <v>3.3526</v>
+        <v>3.4779</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>0.004612452687741681</v>
+        <v>0.002736176793201863</v>
       </c>
       <c r="K35">
         <v>0.9</v>
       </c>
       <c r="L35">
-        <v>0.004151207418967513</v>
+        <v>0.002462559113881677</v>
       </c>
       <c r="M35">
-        <v>5.956937953073805E-06</v>
+        <v>6.487929362422714E-06</v>
       </c>
       <c r="N35">
-        <v>0.3762755045716653</v>
+        <v>0.01150692739529692</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1979,7 +1973,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -1988,34 +1982,34 @@
         <v>9</v>
       </c>
       <c r="E36">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H36">
-        <v>3.10065</v>
+        <v>3.3526</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>0.007749808542038974</v>
+        <v>0.003556310133576917</v>
       </c>
       <c r="K36">
         <v>0.9</v>
       </c>
       <c r="L36">
-        <v>0.006974827687835077</v>
+        <v>0.003200679120219225</v>
       </c>
       <c r="M36">
-        <v>2.06465447017755E-05</v>
+        <v>4.743423745700361E-06</v>
       </c>
       <c r="N36">
-        <v>0.6313193151103987</v>
+        <v>0.008937062159181684</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2023,7 +2017,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -2032,34 +2026,34 @@
         <v>9</v>
       </c>
       <c r="E37">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H37">
-        <v>1.16595</v>
+        <v>3.10065</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>0.00140729318881165</v>
+        <v>0.006260175210151476</v>
       </c>
       <c r="K37">
         <v>0.9</v>
       </c>
       <c r="L37">
-        <v>0.001266563869930485</v>
+        <v>0.005634157689136329</v>
       </c>
       <c r="M37">
-        <v>2.164000308753001E-06</v>
+        <v>3.360688748986785E-05</v>
       </c>
       <c r="N37">
-        <v>0.1272217079126413</v>
+        <v>0.01391925871251052</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2067,7 +2061,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -2076,34 +2070,34 @@
         <v>9</v>
       </c>
       <c r="E38">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
       </c>
       <c r="H38">
-        <v>4.46735</v>
+        <v>3.6109</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>0.00119103816870153</v>
+        <v>0.005700974811231063</v>
       </c>
       <c r="K38">
         <v>0.9</v>
       </c>
       <c r="L38">
-        <v>0.001071934351831377</v>
+        <v>0.005130877330107956</v>
       </c>
       <c r="M38">
-        <v>3.023052045797528E-06</v>
+        <v>1.359447035349065E-06</v>
       </c>
       <c r="N38">
-        <v>0.002457321569613053</v>
+        <v>0.009488900570102659</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2111,7 +2105,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -2120,34 +2114,34 @@
         <v>9</v>
       </c>
       <c r="E39">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" t="s">
         <v>15</v>
       </c>
       <c r="H39">
-        <v>3.6109</v>
+        <v>3.4779</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>0.003545612255305446</v>
+        <v>0.006375135448610787</v>
       </c>
       <c r="K39">
         <v>0.9</v>
       </c>
       <c r="L39">
-        <v>0.003191051029774901</v>
+        <v>0.005737621903749709</v>
       </c>
       <c r="M39">
-        <v>1.817151600150474E-06</v>
+        <v>6.487929362422714E-06</v>
       </c>
       <c r="N39">
-        <v>0.001564954981664872</v>
+        <v>0.01150692739529692</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2155,7 +2149,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -2164,34 +2158,34 @@
         <v>9</v>
       </c>
       <c r="E40">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
       </c>
       <c r="H40">
-        <v>3.4779</v>
+        <v>3.3526</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40">
-        <v>0.005183287681887639</v>
+        <v>0.006251780962110839</v>
       </c>
       <c r="K40">
         <v>0.9</v>
       </c>
       <c r="L40">
-        <v>0.004664958913698876</v>
+        <v>0.005626602865899755</v>
       </c>
       <c r="M40">
-        <v>2.033397242232306E-05</v>
+        <v>4.743423745700361E-06</v>
       </c>
       <c r="N40">
-        <v>0.005058650037685402</v>
+        <v>0.008937062159181684</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2199,7 +2193,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -2208,34 +2202,34 @@
         <v>9</v>
       </c>
       <c r="E41">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="F41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
       </c>
       <c r="H41">
-        <v>3.3526</v>
+        <v>3.10065</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>0.006948117030600796</v>
+        <v>0.01002500568647821</v>
       </c>
       <c r="K41">
         <v>0.9</v>
       </c>
       <c r="L41">
-        <v>0.006253305327540716</v>
+        <v>0.009022505117830386</v>
       </c>
       <c r="M41">
-        <v>5.956937953073805E-06</v>
+        <v>3.360688748986785E-05</v>
       </c>
       <c r="N41">
-        <v>0.3762755045716653</v>
+        <v>0.01391925871251052</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2243,7 +2237,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -2252,34 +2246,34 @@
         <v>9</v>
       </c>
       <c r="E42">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H42">
-        <v>3.10065</v>
+        <v>3.6109</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42">
-        <v>0.01227784286395789</v>
+        <v>0.005047398782337102</v>
       </c>
       <c r="K42">
         <v>0.9</v>
       </c>
       <c r="L42">
-        <v>0.0110500585775621</v>
+        <v>0.004542658904103392</v>
       </c>
       <c r="M42">
-        <v>2.06465447017755E-05</v>
+        <v>1.359447035349065E-06</v>
       </c>
       <c r="N42">
-        <v>0.6313193151103987</v>
+        <v>0.009488900570102659</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2287,7 +2281,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -2296,34 +2290,34 @@
         <v>9</v>
       </c>
       <c r="E43">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H43">
-        <v>1.16595</v>
+        <v>3.4779</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>0.00243775600045847</v>
+        <v>0.006377710866830411</v>
       </c>
       <c r="K43">
         <v>0.9</v>
       </c>
       <c r="L43">
-        <v>0.002193980400412623</v>
+        <v>0.005739939780147371</v>
       </c>
       <c r="M43">
-        <v>2.164000308753001E-06</v>
+        <v>6.487929362422714E-06</v>
       </c>
       <c r="N43">
-        <v>0.1272217079126413</v>
+        <v>0.01150692739529692</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2331,7 +2325,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -2340,34 +2334,34 @@
         <v>9</v>
       </c>
       <c r="E44">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H44">
-        <v>4.46735</v>
+        <v>3.3526</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44">
-        <v>0.004477490301165198</v>
+        <v>0.007160313164999132</v>
       </c>
       <c r="K44">
         <v>0.9</v>
       </c>
       <c r="L44">
-        <v>0.004029741271048679</v>
+        <v>0.006444281848499219</v>
       </c>
       <c r="M44">
-        <v>5.947358487035468E-06</v>
+        <v>4.743423745700361E-06</v>
       </c>
       <c r="N44">
-        <v>0.2543700077356732</v>
+        <v>0.008937062159181684</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2375,7 +2369,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -2384,34 +2378,34 @@
         <v>9</v>
       </c>
       <c r="E45">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H45">
-        <v>3.6109</v>
+        <v>3.10065</v>
       </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="J45">
-        <v>0.002163612856185402</v>
+        <v>0.0123074762760895</v>
       </c>
       <c r="K45">
         <v>0.9</v>
       </c>
       <c r="L45">
-        <v>0.001947251570566862</v>
+        <v>0.01107672864848055</v>
       </c>
       <c r="M45">
-        <v>1.359447035349065E-06</v>
+        <v>3.360688748986785E-05</v>
       </c>
       <c r="N45">
-        <v>0.009488900570102659</v>
+        <v>0.01391925871251052</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2419,7 +2413,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -2428,34 +2422,34 @@
         <v>9</v>
       </c>
       <c r="E46">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H46">
-        <v>3.4779</v>
+        <v>3.6109</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46">
-        <v>0.001608505886273519</v>
+        <v>0.006147188277303782</v>
       </c>
       <c r="K46">
         <v>0.9</v>
       </c>
       <c r="L46">
-        <v>0.001447655297646167</v>
+        <v>0.005532469449573404</v>
       </c>
       <c r="M46">
-        <v>6.487929362422714E-06</v>
+        <v>1.359447035349065E-06</v>
       </c>
       <c r="N46">
-        <v>0.01150692739529692</v>
+        <v>0.009488900570102659</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2463,7 +2457,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -2472,34 +2466,34 @@
         <v>9</v>
       </c>
       <c r="E47">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H47">
-        <v>3.3526</v>
+        <v>3.4779</v>
       </c>
       <c r="I47">
         <v>2</v>
       </c>
       <c r="J47">
-        <v>0.0006018627387553398</v>
+        <v>0.006494356995130712</v>
       </c>
       <c r="K47">
         <v>0.9</v>
       </c>
       <c r="L47">
-        <v>0.0005416764648798058</v>
+        <v>0.005844921295617641</v>
       </c>
       <c r="M47">
-        <v>4.743423745700361E-06</v>
+        <v>6.487929362422714E-06</v>
       </c>
       <c r="N47">
-        <v>0.008937062159181684</v>
+        <v>0.01150692739529692</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2507,7 +2501,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -2516,34 +2510,34 @@
         <v>9</v>
       </c>
       <c r="E48">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H48">
-        <v>3.10065</v>
+        <v>3.3526</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
       <c r="J48">
-        <v>-0.00121036042636405</v>
+        <v>0.006655149098548046</v>
       </c>
       <c r="K48">
         <v>0.9</v>
       </c>
       <c r="L48">
-        <v>-0.001089324383727645</v>
+        <v>0.005989634188693242</v>
       </c>
       <c r="M48">
-        <v>3.360688748986785E-05</v>
+        <v>4.743423745700361E-06</v>
       </c>
       <c r="N48">
-        <v>0.01391925871251052</v>
+        <v>0.008937062159181684</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2551,7 +2545,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -2560,34 +2554,34 @@
         <v>9</v>
       </c>
       <c r="E49">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H49">
-        <v>1.16595</v>
+        <v>3.10065</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49">
-        <v>0.0001256493595568756</v>
+        <v>0.01024444693699698</v>
       </c>
       <c r="K49">
         <v>0.9</v>
       </c>
       <c r="L49">
-        <v>0.000113084423601188</v>
+        <v>0.009220002243297281</v>
       </c>
       <c r="M49">
-        <v>5.07165063482473E-06</v>
+        <v>3.360688748986785E-05</v>
       </c>
       <c r="N49">
-        <v>0.004059399123740309</v>
+        <v>0.01391925871251052</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2595,7 +2589,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
@@ -2604,34 +2598,34 @@
         <v>9</v>
       </c>
       <c r="E50">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
       </c>
       <c r="H50">
-        <v>4.46735</v>
+        <v>3.6109</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50">
-        <v>0.003055690751495143</v>
+        <v>0.005844293110822854</v>
       </c>
       <c r="K50">
         <v>0.9</v>
       </c>
       <c r="L50">
-        <v>0.002750121676345629</v>
+        <v>0.005259863799740569</v>
       </c>
       <c r="M50">
-        <v>5.947358487035468E-06</v>
+        <v>1.359447035349065E-06</v>
       </c>
       <c r="N50">
-        <v>0.2543700077356732</v>
+        <v>0.009488900570102659</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2639,7 +2633,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -2648,34 +2642,34 @@
         <v>9</v>
       </c>
       <c r="E51">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G51" t="s">
         <v>15</v>
       </c>
       <c r="H51">
-        <v>3.6109</v>
+        <v>3.4779</v>
       </c>
       <c r="I51">
         <v>2</v>
       </c>
       <c r="J51">
-        <v>0.003143592320390266</v>
+        <v>0.005052622329780131</v>
       </c>
       <c r="K51">
         <v>0.9</v>
       </c>
       <c r="L51">
-        <v>0.002829233088351239</v>
+        <v>0.004547360096802118</v>
       </c>
       <c r="M51">
-        <v>1.359447035349065E-06</v>
+        <v>6.487929362422714E-06</v>
       </c>
       <c r="N51">
-        <v>0.009488900570102659</v>
+        <v>0.01150692739529692</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2683,7 +2677,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -2692,34 +2686,34 @@
         <v>9</v>
       </c>
       <c r="E52">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G52" t="s">
         <v>16</v>
       </c>
       <c r="H52">
-        <v>3.4779</v>
+        <v>3.3526</v>
       </c>
       <c r="I52">
         <v>2</v>
       </c>
       <c r="J52">
-        <v>0.002736176793201863</v>
+        <v>0.006572071159092372</v>
       </c>
       <c r="K52">
         <v>0.9</v>
       </c>
       <c r="L52">
-        <v>0.002462559113881677</v>
+        <v>0.005914864043183135</v>
       </c>
       <c r="M52">
-        <v>6.487929362422714E-06</v>
+        <v>4.743423745700361E-06</v>
       </c>
       <c r="N52">
-        <v>0.01150692739529692</v>
+        <v>0.008937062159181684</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2727,7 +2721,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
@@ -2736,34 +2730,34 @@
         <v>9</v>
       </c>
       <c r="E53">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
       </c>
       <c r="H53">
-        <v>3.3526</v>
+        <v>3.10065</v>
       </c>
       <c r="I53">
         <v>2</v>
       </c>
       <c r="J53">
-        <v>0.003556310133576917</v>
+        <v>0.008935409478499023</v>
       </c>
       <c r="K53">
         <v>0.9</v>
       </c>
       <c r="L53">
-        <v>0.003200679120219225</v>
+        <v>0.008041868530649121</v>
       </c>
       <c r="M53">
-        <v>4.743423745700361E-06</v>
+        <v>3.360688748986785E-05</v>
       </c>
       <c r="N53">
-        <v>0.008937062159181684</v>
+        <v>0.01391925871251052</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2771,7 +2765,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -2780,34 +2774,34 @@
         <v>9</v>
       </c>
       <c r="E54">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H54">
-        <v>3.10065</v>
+        <v>3.6109</v>
       </c>
       <c r="I54">
         <v>2</v>
       </c>
       <c r="J54">
-        <v>0.006260175210151476</v>
+        <v>0.006724050061307678</v>
       </c>
       <c r="K54">
         <v>0.9</v>
       </c>
       <c r="L54">
-        <v>0.005634157689136329</v>
+        <v>0.00605164505517691</v>
       </c>
       <c r="M54">
-        <v>3.360688748986785E-05</v>
+        <v>1.359447035349065E-06</v>
       </c>
       <c r="N54">
-        <v>0.01391925871251052</v>
+        <v>0.009488900570102659</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2815,7 +2809,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -2824,34 +2818,34 @@
         <v>9</v>
       </c>
       <c r="E55">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H55">
-        <v>1.16595</v>
+        <v>3.4779</v>
       </c>
       <c r="I55">
         <v>2</v>
       </c>
       <c r="J55">
-        <v>0.001619305653894893</v>
+        <v>0.004951820416595939</v>
       </c>
       <c r="K55">
         <v>0.9</v>
       </c>
       <c r="L55">
-        <v>0.001457375088505403</v>
+        <v>0.004456638374936346</v>
       </c>
       <c r="M55">
-        <v>5.07165063482473E-06</v>
+        <v>6.487929362422714E-06</v>
       </c>
       <c r="N55">
-        <v>0.004059399123740309</v>
+        <v>0.01150692739529692</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2859,7 +2853,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -2868,34 +2862,34 @@
         <v>9</v>
       </c>
       <c r="E56">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H56">
-        <v>4.46735</v>
+        <v>3.3526</v>
       </c>
       <c r="I56">
         <v>2</v>
       </c>
       <c r="J56">
-        <v>0.003932896497468636</v>
+        <v>0.008284804549609698</v>
       </c>
       <c r="K56">
         <v>0.9</v>
       </c>
       <c r="L56">
-        <v>0.003539606847721772</v>
+        <v>0.007456324094648728</v>
       </c>
       <c r="M56">
-        <v>5.947358487035468E-06</v>
+        <v>4.743423745700361E-06</v>
       </c>
       <c r="N56">
-        <v>0.2543700077356732</v>
+        <v>0.008937062159181684</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2903,7 +2897,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -2912,34 +2906,34 @@
         <v>9</v>
       </c>
       <c r="E57">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H57">
-        <v>3.6109</v>
+        <v>3.10065</v>
       </c>
       <c r="I57">
         <v>2</v>
       </c>
       <c r="J57">
-        <v>0.005700974811231063</v>
+        <v>0.01334191595392246</v>
       </c>
       <c r="K57">
         <v>0.9</v>
       </c>
       <c r="L57">
-        <v>0.005130877330107956</v>
+        <v>0.01200772435853021</v>
       </c>
       <c r="M57">
-        <v>1.359447035349065E-06</v>
+        <v>3.360688748986785E-05</v>
       </c>
       <c r="N57">
-        <v>0.009488900570102659</v>
+        <v>0.01391925871251052</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -2947,7 +2941,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -2956,34 +2950,34 @@
         <v>9</v>
       </c>
       <c r="E58">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H58">
-        <v>3.4779</v>
+        <v>3.6109</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58">
-        <v>0.006375135448610787</v>
+        <v>0.001940625207915744</v>
       </c>
       <c r="K58">
         <v>0.9</v>
       </c>
       <c r="L58">
-        <v>0.005737621903749709</v>
+        <v>0.00174656268712417</v>
       </c>
       <c r="M58">
-        <v>6.487929362422714E-06</v>
+        <v>2.426204375092531E-06</v>
       </c>
       <c r="N58">
-        <v>0.01150692739529692</v>
+        <v>0.007386766890721614</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -2991,7 +2985,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -3000,34 +2994,34 @@
         <v>9</v>
       </c>
       <c r="E59">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H59">
-        <v>3.3526</v>
+        <v>3.4779</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59">
-        <v>0.006251780962110839</v>
+        <v>0.0003699469178993604</v>
       </c>
       <c r="K59">
         <v>0.9</v>
       </c>
       <c r="L59">
-        <v>0.005626602865899755</v>
+        <v>0.0003329522261094243</v>
       </c>
       <c r="M59">
-        <v>4.743423745700361E-06</v>
+        <v>9.910656454338371E-06</v>
       </c>
       <c r="N59">
-        <v>0.008937062159181684</v>
+        <v>0.007106925366272773</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3035,7 +3029,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -3044,34 +3038,34 @@
         <v>9</v>
       </c>
       <c r="E60">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H60">
-        <v>3.10065</v>
+        <v>3.3526</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60">
-        <v>0.01002500568647821</v>
+        <v>0.0006773773946021694</v>
       </c>
       <c r="K60">
         <v>0.9</v>
       </c>
       <c r="L60">
-        <v>0.009022505117830386</v>
+        <v>0.0006096396551419524</v>
       </c>
       <c r="M60">
-        <v>3.360688748986785E-05</v>
+        <v>5.387125535603112E-06</v>
       </c>
       <c r="N60">
-        <v>0.01391925871251052</v>
+        <v>0.007405594076282051</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3079,7 +3073,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -3088,34 +3082,34 @@
         <v>9</v>
       </c>
       <c r="E61">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H61">
-        <v>1.16595</v>
+        <v>3.10065</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61">
-        <v>0.004529185114589365</v>
+        <v>-0.001097004268507924</v>
       </c>
       <c r="K61">
         <v>0.9</v>
       </c>
       <c r="L61">
-        <v>0.004076266603130429</v>
+        <v>-0.0009873038416571315</v>
       </c>
       <c r="M61">
-        <v>5.07165063482473E-06</v>
+        <v>4.186395892975327E-05</v>
       </c>
       <c r="N61">
-        <v>0.004059399123740309</v>
+        <v>0.01085217876416503</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3123,7 +3117,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -3132,34 +3126,34 @@
         <v>9</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G62" t="s">
         <v>14</v>
       </c>
       <c r="H62">
-        <v>4.46735</v>
+        <v>3.6109</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62">
-        <v>0.001414600297409991</v>
+        <v>0.002672536903240191</v>
       </c>
       <c r="K62">
         <v>0.9</v>
       </c>
       <c r="L62">
-        <v>0.001273140267668992</v>
+        <v>0.002405283212916171</v>
       </c>
       <c r="M62">
-        <v>5.947358487035468E-06</v>
+        <v>2.426204375092531E-06</v>
       </c>
       <c r="N62">
-        <v>0.2543700077356732</v>
+        <v>0.007386766890721614</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3167,7 +3161,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -3176,34 +3170,34 @@
         <v>9</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G63" t="s">
         <v>15</v>
       </c>
       <c r="H63">
-        <v>3.6109</v>
+        <v>3.4779</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J63">
-        <v>0.005047398782337102</v>
+        <v>0.001568462714300334</v>
       </c>
       <c r="K63">
         <v>0.9</v>
       </c>
       <c r="L63">
-        <v>0.004542658904103392</v>
+        <v>0.0014116164428703</v>
       </c>
       <c r="M63">
-        <v>1.359447035349065E-06</v>
+        <v>9.910656454338371E-06</v>
       </c>
       <c r="N63">
-        <v>0.009488900570102659</v>
+        <v>0.007106925366272773</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3211,7 +3205,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -3220,34 +3214,34 @@
         <v>9</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G64" t="s">
         <v>16</v>
       </c>
       <c r="H64">
-        <v>3.4779</v>
+        <v>3.3526</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J64">
-        <v>0.006377710866830411</v>
+        <v>0.00288549221519468</v>
       </c>
       <c r="K64">
         <v>0.9</v>
       </c>
       <c r="L64">
-        <v>0.005739939780147371</v>
+        <v>0.002596942993675212</v>
       </c>
       <c r="M64">
-        <v>6.487929362422714E-06</v>
+        <v>5.387125535603112E-06</v>
       </c>
       <c r="N64">
-        <v>0.01150692739529692</v>
+        <v>0.007405594076282051</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3255,7 +3249,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -3264,34 +3258,34 @@
         <v>9</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G65" t="s">
         <v>17</v>
       </c>
       <c r="H65">
-        <v>3.3526</v>
+        <v>3.10065</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65">
-        <v>0.007160313164999132</v>
+        <v>0.003118330942847836</v>
       </c>
       <c r="K65">
         <v>0.9</v>
       </c>
       <c r="L65">
-        <v>0.006444281848499219</v>
+        <v>0.002806497848563053</v>
       </c>
       <c r="M65">
-        <v>4.743423745700361E-06</v>
+        <v>4.186395892975327E-05</v>
       </c>
       <c r="N65">
-        <v>0.008937062159181684</v>
+        <v>0.01085217876416503</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3299,7 +3293,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -3308,34 +3302,34 @@
         <v>9</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H66">
-        <v>3.10065</v>
+        <v>3.6109</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66">
-        <v>0.0123074762760895</v>
+        <v>0.004611832428583277</v>
       </c>
       <c r="K66">
         <v>0.9</v>
       </c>
       <c r="L66">
-        <v>0.01107672864848055</v>
+        <v>0.004150649185724949</v>
       </c>
       <c r="M66">
-        <v>3.360688748986785E-05</v>
+        <v>2.426204375092531E-06</v>
       </c>
       <c r="N66">
-        <v>0.01391925871251052</v>
+        <v>0.007386766890721614</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3343,7 +3337,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
@@ -3352,34 +3346,34 @@
         <v>9</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F67">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H67">
-        <v>1.16595</v>
+        <v>3.4779</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67">
-        <v>0.002908860620816699</v>
+        <v>0.006374023478604418</v>
       </c>
       <c r="K67">
         <v>0.9</v>
       </c>
       <c r="L67">
-        <v>0.00261797455873503</v>
+        <v>0.005736621130743976</v>
       </c>
       <c r="M67">
-        <v>5.07165063482473E-06</v>
+        <v>9.910656454338371E-06</v>
       </c>
       <c r="N67">
-        <v>0.004059399123740309</v>
+        <v>0.007106925366272773</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3387,7 +3381,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -3396,34 +3390,34 @@
         <v>9</v>
       </c>
       <c r="E68">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G68" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H68">
-        <v>4.46735</v>
+        <v>3.3526</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68">
-        <v>0.004669790964559033</v>
+        <v>0.004139331964634196</v>
       </c>
       <c r="K68">
         <v>0.9</v>
       </c>
       <c r="L68">
-        <v>0.00420281186810313</v>
+        <v>0.003725398768170777</v>
       </c>
       <c r="M68">
-        <v>5.947358487035468E-06</v>
+        <v>5.387125535603112E-06</v>
       </c>
       <c r="N68">
-        <v>0.2543700077356732</v>
+        <v>0.007405594076282051</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3431,7 +3425,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -3440,34 +3434,34 @@
         <v>9</v>
       </c>
       <c r="E69">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H69">
-        <v>3.6109</v>
+        <v>3.10065</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69">
-        <v>0.006147188277303782</v>
+        <v>0.007311943655333181</v>
       </c>
       <c r="K69">
         <v>0.9</v>
       </c>
       <c r="L69">
-        <v>0.005532469449573404</v>
+        <v>0.006580749289799862</v>
       </c>
       <c r="M69">
-        <v>1.359447035349065E-06</v>
+        <v>4.186395892975327E-05</v>
       </c>
       <c r="N69">
-        <v>0.009488900570102659</v>
+        <v>0.01085217876416503</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3475,7 +3469,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -3484,34 +3478,34 @@
         <v>9</v>
       </c>
       <c r="E70">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H70">
-        <v>3.4779</v>
+        <v>3.6109</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70">
-        <v>0.006494356995130712</v>
+        <v>0.005897988888068218</v>
       </c>
       <c r="K70">
         <v>0.9</v>
       </c>
       <c r="L70">
-        <v>0.005844921295617641</v>
+        <v>0.005308189999261396</v>
       </c>
       <c r="M70">
-        <v>6.487929362422714E-06</v>
+        <v>2.426204375092531E-06</v>
       </c>
       <c r="N70">
-        <v>0.01150692739529692</v>
+        <v>0.007386766890721614</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3519,7 +3513,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -3528,34 +3522,34 @@
         <v>9</v>
       </c>
       <c r="E71">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H71">
-        <v>3.3526</v>
+        <v>3.4779</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J71">
-        <v>0.006655149098548046</v>
+        <v>0.005111087360550009</v>
       </c>
       <c r="K71">
         <v>0.9</v>
       </c>
       <c r="L71">
-        <v>0.005989634188693242</v>
+        <v>0.004599978624495008</v>
       </c>
       <c r="M71">
-        <v>4.743423745700361E-06</v>
+        <v>9.910656454338371E-06</v>
       </c>
       <c r="N71">
-        <v>0.008937062159181684</v>
+        <v>0.007106925366272773</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3563,7 +3557,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -3572,34 +3566,34 @@
         <v>9</v>
       </c>
       <c r="E72">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H72">
-        <v>3.10065</v>
+        <v>3.3526</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J72">
-        <v>0.01024444693699698</v>
+        <v>0.007321067751176661</v>
       </c>
       <c r="K72">
         <v>0.9</v>
       </c>
       <c r="L72">
-        <v>0.009220002243297281</v>
+        <v>0.006588960976058995</v>
       </c>
       <c r="M72">
-        <v>3.360688748986785E-05</v>
+        <v>5.387125535603112E-06</v>
       </c>
       <c r="N72">
-        <v>0.01391925871251052</v>
+        <v>0.007405594076282051</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3607,7 +3601,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -3616,34 +3610,34 @@
         <v>9</v>
       </c>
       <c r="E73">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H73">
-        <v>1.16595</v>
+        <v>3.10065</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J73">
-        <v>0.00430520919337203</v>
+        <v>0.009716789238847995</v>
       </c>
       <c r="K73">
         <v>0.9</v>
       </c>
       <c r="L73">
-        <v>0.003874688274034827</v>
+        <v>0.008745110314963197</v>
       </c>
       <c r="M73">
-        <v>5.07165063482473E-06</v>
+        <v>4.186395892975327E-05</v>
       </c>
       <c r="N73">
-        <v>0.004059399123740309</v>
+        <v>0.01085217876416503</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3651,7 +3645,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -3660,34 +3654,34 @@
         <v>9</v>
       </c>
       <c r="E74">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G74" t="s">
         <v>14</v>
       </c>
       <c r="H74">
-        <v>4.46735</v>
+        <v>3.6109</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74">
-        <v>0.003702525878304226</v>
+        <v>0.00440395428031404</v>
       </c>
       <c r="K74">
         <v>0.9</v>
       </c>
       <c r="L74">
-        <v>0.003332273290473803</v>
+        <v>0.003963558852282636</v>
       </c>
       <c r="M74">
-        <v>5.947358487035468E-06</v>
+        <v>2.426204375092531E-06</v>
       </c>
       <c r="N74">
-        <v>0.2543700077356732</v>
+        <v>0.007386766890721614</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3695,7 +3689,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -3704,34 +3698,34 @@
         <v>9</v>
       </c>
       <c r="E75">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G75" t="s">
         <v>15</v>
       </c>
       <c r="H75">
-        <v>3.6109</v>
+        <v>3.4779</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75">
-        <v>0.005844293110822854</v>
+        <v>0.007582528815790055</v>
       </c>
       <c r="K75">
         <v>0.9</v>
       </c>
       <c r="L75">
-        <v>0.005259863799740569</v>
+        <v>0.00682427593421105</v>
       </c>
       <c r="M75">
-        <v>1.359447035349065E-06</v>
+        <v>9.910656454338371E-06</v>
       </c>
       <c r="N75">
-        <v>0.009488900570102659</v>
+        <v>0.007106925366272773</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3739,7 +3733,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -3748,34 +3742,34 @@
         <v>9</v>
       </c>
       <c r="E76">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
       </c>
       <c r="H76">
-        <v>3.4779</v>
+        <v>3.3526</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76">
-        <v>0.005052622329780131</v>
+        <v>0.008103056721632923</v>
       </c>
       <c r="K76">
         <v>0.9</v>
       </c>
       <c r="L76">
-        <v>0.004547360096802118</v>
+        <v>0.007292751049469631</v>
       </c>
       <c r="M76">
-        <v>6.487929362422714E-06</v>
+        <v>5.387125535603112E-06</v>
       </c>
       <c r="N76">
-        <v>0.01150692739529692</v>
+        <v>0.007405594076282051</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3783,7 +3777,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -3792,34 +3786,34 @@
         <v>9</v>
       </c>
       <c r="E77">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G77" t="s">
         <v>17</v>
       </c>
       <c r="H77">
-        <v>3.3526</v>
+        <v>3.10065</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77">
-        <v>0.006572071159092372</v>
+        <v>0.01480425744520502</v>
       </c>
       <c r="K77">
         <v>0.9</v>
       </c>
       <c r="L77">
-        <v>0.005914864043183135</v>
+        <v>0.01332383170068452</v>
       </c>
       <c r="M77">
-        <v>4.743423745700361E-06</v>
+        <v>4.186395892975327E-05</v>
       </c>
       <c r="N77">
-        <v>0.008937062159181684</v>
+        <v>0.01085217876416503</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3827,7 +3821,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -3839,31 +3833,31 @@
         <v>1.5</v>
       </c>
       <c r="F78">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H78">
-        <v>3.10065</v>
+        <v>3.6109</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J78">
-        <v>0.008935409478499023</v>
+        <v>0.005820364534294198</v>
       </c>
       <c r="K78">
         <v>0.9</v>
       </c>
       <c r="L78">
-        <v>0.008041868530649121</v>
+        <v>0.005238328080864778</v>
       </c>
       <c r="M78">
-        <v>3.360688748986785E-05</v>
+        <v>2.426204375092531E-06</v>
       </c>
       <c r="N78">
-        <v>0.01391925871251052</v>
+        <v>0.007386766890721614</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3871,7 +3865,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -3883,31 +3877,31 @@
         <v>1.5</v>
       </c>
       <c r="F79">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G79" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H79">
-        <v>1.16595</v>
+        <v>3.4779</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J79">
-        <v>0.003487063764499827</v>
+        <v>0.00570139920755326</v>
       </c>
       <c r="K79">
         <v>0.9</v>
       </c>
       <c r="L79">
-        <v>0.003138357388049844</v>
+        <v>0.005131259286797934</v>
       </c>
       <c r="M79">
-        <v>5.07165063482473E-06</v>
+        <v>9.910656454338371E-06</v>
       </c>
       <c r="N79">
-        <v>0.004059399123740309</v>
+        <v>0.007106925366272773</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3915,7 +3909,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -3924,34 +3918,34 @@
         <v>9</v>
       </c>
       <c r="E80">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H80">
-        <v>4.46735</v>
+        <v>3.3526</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J80">
-        <v>0.00299729872213089</v>
+        <v>0.007630179588086174</v>
       </c>
       <c r="K80">
         <v>0.9</v>
       </c>
       <c r="L80">
-        <v>0.002697568849917801</v>
+        <v>0.006867161629277557</v>
       </c>
       <c r="M80">
-        <v>5.947358487035468E-06</v>
+        <v>5.387125535603112E-06</v>
       </c>
       <c r="N80">
-        <v>0.2543700077356732</v>
+        <v>0.007405594076282051</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3959,7 +3953,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -3968,34 +3962,34 @@
         <v>9</v>
       </c>
       <c r="E81">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H81">
-        <v>3.6109</v>
+        <v>3.10065</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J81">
-        <v>0.006724050061307678</v>
+        <v>0.01095110605816826</v>
       </c>
       <c r="K81">
         <v>0.9</v>
       </c>
       <c r="L81">
-        <v>0.00605164505517691</v>
+        <v>0.009855995452351433</v>
       </c>
       <c r="M81">
-        <v>1.359447035349065E-06</v>
+        <v>4.186395892975327E-05</v>
       </c>
       <c r="N81">
-        <v>0.009488900570102659</v>
+        <v>0.01085217876416503</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4003,7 +3997,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -4015,31 +4009,31 @@
         <v>1.75</v>
       </c>
       <c r="F82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H82">
-        <v>3.4779</v>
+        <v>3.6109</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J82">
-        <v>0.004951820416595939</v>
+        <v>0.006926188149564801</v>
       </c>
       <c r="K82">
         <v>0.9</v>
       </c>
       <c r="L82">
-        <v>0.004456638374936346</v>
+        <v>0.006233569334608322</v>
       </c>
       <c r="M82">
-        <v>6.487929362422714E-06</v>
+        <v>2.426204375092531E-06</v>
       </c>
       <c r="N82">
-        <v>0.01150692739529692</v>
+        <v>0.007386766890721614</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4047,7 +4041,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -4059,31 +4053,31 @@
         <v>1.75</v>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H83">
-        <v>3.3526</v>
+        <v>3.4779</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J83">
-        <v>0.008284804549609698</v>
+        <v>0.006661307448020906</v>
       </c>
       <c r="K83">
         <v>0.9</v>
       </c>
       <c r="L83">
-        <v>0.007456324094648728</v>
+        <v>0.005995176703218815</v>
       </c>
       <c r="M83">
-        <v>4.743423745700361E-06</v>
+        <v>9.910656454338371E-06</v>
       </c>
       <c r="N83">
-        <v>0.008937062159181684</v>
+        <v>0.007106925366272773</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4091,7 +4085,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
@@ -4103,31 +4097,31 @@
         <v>1.75</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H84">
-        <v>3.10065</v>
+        <v>3.3526</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J84">
-        <v>0.01334191595392246</v>
+        <v>0.007359991633870364</v>
       </c>
       <c r="K84">
         <v>0.9</v>
       </c>
       <c r="L84">
-        <v>0.01200772435853021</v>
+        <v>0.006623992470483328</v>
       </c>
       <c r="M84">
-        <v>3.360688748986785E-05</v>
+        <v>5.387125535603112E-06</v>
       </c>
       <c r="N84">
-        <v>0.01391925871251052</v>
+        <v>0.007405594076282051</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4135,7 +4129,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -4147,1879 +4141,31 @@
         <v>1.75</v>
       </c>
       <c r="F85">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G85" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H85">
-        <v>1.16595</v>
+        <v>3.10065</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J85">
-        <v>0.005828392354141802</v>
+        <v>0.009163474126864897</v>
       </c>
       <c r="K85">
         <v>0.9</v>
       </c>
       <c r="L85">
-        <v>0.005245553118727622</v>
+        <v>0.008247126714178408</v>
       </c>
       <c r="M85">
-        <v>5.07165063482473E-06</v>
+        <v>4.186395892975327E-05</v>
       </c>
       <c r="N85">
-        <v>0.004059399123740309</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>112</v>
-      </c>
-      <c r="C86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86">
-        <v>9</v>
-      </c>
-      <c r="E86">
-        <v>0.25</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86">
-        <v>4.46735</v>
-      </c>
-      <c r="I86">
-        <v>3</v>
-      </c>
-      <c r="J86">
-        <v>0.002641436572042982</v>
-      </c>
-      <c r="K86">
-        <v>0.9</v>
-      </c>
-      <c r="L86">
-        <v>0.002377292914838684</v>
-      </c>
-      <c r="M86">
-        <v>2.744764950328556E-06</v>
-      </c>
-      <c r="N86">
-        <v>0.01442974731896431</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>115</v>
-      </c>
-      <c r="C87" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87">
-        <v>9</v>
-      </c>
-      <c r="E87">
-        <v>0.25</v>
-      </c>
-      <c r="F87">
-        <v>4</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
-      <c r="H87">
-        <v>3.6109</v>
-      </c>
-      <c r="I87">
-        <v>3</v>
-      </c>
-      <c r="J87">
-        <v>0.001940625207915744</v>
-      </c>
-      <c r="K87">
-        <v>0.9</v>
-      </c>
-      <c r="L87">
-        <v>0.00174656268712417</v>
-      </c>
-      <c r="M87">
-        <v>2.426204375092531E-06</v>
-      </c>
-      <c r="N87">
-        <v>0.007386766890721614</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>116</v>
-      </c>
-      <c r="C88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88">
-        <v>9</v>
-      </c>
-      <c r="E88">
-        <v>0.25</v>
-      </c>
-      <c r="F88">
-        <v>5</v>
-      </c>
-      <c r="G88" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88">
-        <v>3.4779</v>
-      </c>
-      <c r="I88">
-        <v>3</v>
-      </c>
-      <c r="J88">
-        <v>0.0003699469178993604</v>
-      </c>
-      <c r="K88">
-        <v>0.9</v>
-      </c>
-      <c r="L88">
-        <v>0.0003329522261094243</v>
-      </c>
-      <c r="M88">
-        <v>9.910656454338371E-06</v>
-      </c>
-      <c r="N88">
-        <v>0.007106925366272773</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>117</v>
-      </c>
-      <c r="C89" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89">
-        <v>9</v>
-      </c>
-      <c r="E89">
-        <v>0.25</v>
-      </c>
-      <c r="F89">
-        <v>6</v>
-      </c>
-      <c r="G89" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89">
-        <v>3.3526</v>
-      </c>
-      <c r="I89">
-        <v>3</v>
-      </c>
-      <c r="J89">
-        <v>0.0006773773946021694</v>
-      </c>
-      <c r="K89">
-        <v>0.9</v>
-      </c>
-      <c r="L89">
-        <v>0.0006096396551419524</v>
-      </c>
-      <c r="M89">
-        <v>5.387125535603112E-06</v>
-      </c>
-      <c r="N89">
-        <v>0.007405594076282051</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>118</v>
-      </c>
-      <c r="C90" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90">
-        <v>9</v>
-      </c>
-      <c r="E90">
-        <v>0.25</v>
-      </c>
-      <c r="F90">
-        <v>7</v>
-      </c>
-      <c r="G90" t="s">
-        <v>18</v>
-      </c>
-      <c r="H90">
-        <v>3.10065</v>
-      </c>
-      <c r="I90">
-        <v>3</v>
-      </c>
-      <c r="J90">
-        <v>-0.001097004268507924</v>
-      </c>
-      <c r="K90">
-        <v>0.9</v>
-      </c>
-      <c r="L90">
-        <v>-0.0009873038416571315</v>
-      </c>
-      <c r="M90">
-        <v>4.186395892975327E-05</v>
-      </c>
-      <c r="N90">
         <v>0.01085217876416503</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>119</v>
-      </c>
-      <c r="C91" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91">
-        <v>9</v>
-      </c>
-      <c r="E91">
-        <v>0.25</v>
-      </c>
-      <c r="F91">
-        <v>8</v>
-      </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91">
-        <v>1.16595</v>
-      </c>
-      <c r="I91">
-        <v>3</v>
-      </c>
-      <c r="J91">
-        <v>-0.0005489545831186</v>
-      </c>
-      <c r="K91">
-        <v>0.9</v>
-      </c>
-      <c r="L91">
-        <v>-0.0004940591248067401</v>
-      </c>
-      <c r="M91">
-        <v>2.699959851461908E-06</v>
-      </c>
-      <c r="N91">
-        <v>0.002149761329816096</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>120</v>
-      </c>
-      <c r="C92" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92">
-        <v>9</v>
-      </c>
-      <c r="E92">
-        <v>0.5</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92">
-        <v>4.46735</v>
-      </c>
-      <c r="I92">
-        <v>3</v>
-      </c>
-      <c r="J92">
-        <v>0.002313038325262511</v>
-      </c>
-      <c r="K92">
-        <v>0.9</v>
-      </c>
-      <c r="L92">
-        <v>0.00208173449273626</v>
-      </c>
-      <c r="M92">
-        <v>2.744764950328556E-06</v>
-      </c>
-      <c r="N92">
-        <v>0.01442974731896431</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>123</v>
-      </c>
-      <c r="C93" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93">
-        <v>9</v>
-      </c>
-      <c r="E93">
-        <v>0.5</v>
-      </c>
-      <c r="F93">
-        <v>4</v>
-      </c>
-      <c r="G93" t="s">
-        <v>15</v>
-      </c>
-      <c r="H93">
-        <v>3.6109</v>
-      </c>
-      <c r="I93">
-        <v>3</v>
-      </c>
-      <c r="J93">
-        <v>0.002672536903240191</v>
-      </c>
-      <c r="K93">
-        <v>0.9</v>
-      </c>
-      <c r="L93">
-        <v>0.002405283212916171</v>
-      </c>
-      <c r="M93">
-        <v>2.426204375092531E-06</v>
-      </c>
-      <c r="N93">
-        <v>0.007386766890721614</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>124</v>
-      </c>
-      <c r="C94" t="s">
-        <v>13</v>
-      </c>
-      <c r="D94">
-        <v>9</v>
-      </c>
-      <c r="E94">
-        <v>0.5</v>
-      </c>
-      <c r="F94">
-        <v>5</v>
-      </c>
-      <c r="G94" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94">
-        <v>3.4779</v>
-      </c>
-      <c r="I94">
-        <v>3</v>
-      </c>
-      <c r="J94">
-        <v>0.001568462714300334</v>
-      </c>
-      <c r="K94">
-        <v>0.9</v>
-      </c>
-      <c r="L94">
-        <v>0.0014116164428703</v>
-      </c>
-      <c r="M94">
-        <v>9.910656454338371E-06</v>
-      </c>
-      <c r="N94">
-        <v>0.007106925366272773</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>125</v>
-      </c>
-      <c r="C95" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95">
-        <v>9</v>
-      </c>
-      <c r="E95">
-        <v>0.5</v>
-      </c>
-      <c r="F95">
-        <v>6</v>
-      </c>
-      <c r="G95" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95">
-        <v>3.3526</v>
-      </c>
-      <c r="I95">
-        <v>3</v>
-      </c>
-      <c r="J95">
-        <v>0.00288549221519468</v>
-      </c>
-      <c r="K95">
-        <v>0.9</v>
-      </c>
-      <c r="L95">
-        <v>0.002596942993675212</v>
-      </c>
-      <c r="M95">
-        <v>5.387125535603112E-06</v>
-      </c>
-      <c r="N95">
-        <v>0.007405594076282051</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>126</v>
-      </c>
-      <c r="C96" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96">
-        <v>9</v>
-      </c>
-      <c r="E96">
-        <v>0.5</v>
-      </c>
-      <c r="F96">
-        <v>7</v>
-      </c>
-      <c r="G96" t="s">
-        <v>18</v>
-      </c>
-      <c r="H96">
-        <v>3.10065</v>
-      </c>
-      <c r="I96">
-        <v>3</v>
-      </c>
-      <c r="J96">
-        <v>0.003118330942847836</v>
-      </c>
-      <c r="K96">
-        <v>0.9</v>
-      </c>
-      <c r="L96">
-        <v>0.002806497848563053</v>
-      </c>
-      <c r="M96">
-        <v>4.186395892975327E-05</v>
-      </c>
-      <c r="N96">
-        <v>0.01085217876416503</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>127</v>
-      </c>
-      <c r="C97" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97">
-        <v>9</v>
-      </c>
-      <c r="E97">
-        <v>0.5</v>
-      </c>
-      <c r="F97">
-        <v>8</v>
-      </c>
-      <c r="G97" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97">
-        <v>1.16595</v>
-      </c>
-      <c r="I97">
-        <v>3</v>
-      </c>
-      <c r="J97">
-        <v>0.0004321961291202571</v>
-      </c>
-      <c r="K97">
-        <v>0.9</v>
-      </c>
-      <c r="L97">
-        <v>0.0003889765162082313</v>
-      </c>
-      <c r="M97">
-        <v>2.699959851461908E-06</v>
-      </c>
-      <c r="N97">
-        <v>0.002149761329816096</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>128</v>
-      </c>
-      <c r="C98" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98">
-        <v>9</v>
-      </c>
-      <c r="E98">
-        <v>0.75</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98">
-        <v>4.46735</v>
-      </c>
-      <c r="I98">
-        <v>3</v>
-      </c>
-      <c r="J98">
-        <v>0.002542953014272141</v>
-      </c>
-      <c r="K98">
-        <v>0.9</v>
-      </c>
-      <c r="L98">
-        <v>0.002288657712844927</v>
-      </c>
-      <c r="M98">
-        <v>2.744764950328556E-06</v>
-      </c>
-      <c r="N98">
-        <v>0.01442974731896431</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>131</v>
-      </c>
-      <c r="C99" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99">
-        <v>9</v>
-      </c>
-      <c r="E99">
-        <v>0.75</v>
-      </c>
-      <c r="F99">
-        <v>4</v>
-      </c>
-      <c r="G99" t="s">
-        <v>15</v>
-      </c>
-      <c r="H99">
-        <v>3.6109</v>
-      </c>
-      <c r="I99">
-        <v>3</v>
-      </c>
-      <c r="J99">
-        <v>0.004611832428583277</v>
-      </c>
-      <c r="K99">
-        <v>0.9</v>
-      </c>
-      <c r="L99">
-        <v>0.004150649185724949</v>
-      </c>
-      <c r="M99">
-        <v>2.426204375092531E-06</v>
-      </c>
-      <c r="N99">
-        <v>0.007386766890721614</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>132</v>
-      </c>
-      <c r="C100" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100">
-        <v>9</v>
-      </c>
-      <c r="E100">
-        <v>0.75</v>
-      </c>
-      <c r="F100">
-        <v>5</v>
-      </c>
-      <c r="G100" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100">
-        <v>3.4779</v>
-      </c>
-      <c r="I100">
-        <v>3</v>
-      </c>
-      <c r="J100">
-        <v>0.006374023478604418</v>
-      </c>
-      <c r="K100">
-        <v>0.9</v>
-      </c>
-      <c r="L100">
-        <v>0.005736621130743976</v>
-      </c>
-      <c r="M100">
-        <v>9.910656454338371E-06</v>
-      </c>
-      <c r="N100">
-        <v>0.007106925366272773</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>133</v>
-      </c>
-      <c r="C101" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101">
-        <v>9</v>
-      </c>
-      <c r="E101">
-        <v>0.75</v>
-      </c>
-      <c r="F101">
-        <v>6</v>
-      </c>
-      <c r="G101" t="s">
-        <v>17</v>
-      </c>
-      <c r="H101">
-        <v>3.3526</v>
-      </c>
-      <c r="I101">
-        <v>3</v>
-      </c>
-      <c r="J101">
-        <v>0.004139331964634196</v>
-      </c>
-      <c r="K101">
-        <v>0.9</v>
-      </c>
-      <c r="L101">
-        <v>0.003725398768170777</v>
-      </c>
-      <c r="M101">
-        <v>5.387125535603112E-06</v>
-      </c>
-      <c r="N101">
-        <v>0.007405594076282051</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>134</v>
-      </c>
-      <c r="C102" t="s">
-        <v>13</v>
-      </c>
-      <c r="D102">
-        <v>9</v>
-      </c>
-      <c r="E102">
-        <v>0.75</v>
-      </c>
-      <c r="F102">
-        <v>7</v>
-      </c>
-      <c r="G102" t="s">
-        <v>18</v>
-      </c>
-      <c r="H102">
-        <v>3.10065</v>
-      </c>
-      <c r="I102">
-        <v>3</v>
-      </c>
-      <c r="J102">
-        <v>0.007311943655333181</v>
-      </c>
-      <c r="K102">
-        <v>0.9</v>
-      </c>
-      <c r="L102">
-        <v>0.006580749289799862</v>
-      </c>
-      <c r="M102">
-        <v>4.186395892975327E-05</v>
-      </c>
-      <c r="N102">
-        <v>0.01085217876416503</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>135</v>
-      </c>
-      <c r="C103" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103">
-        <v>9</v>
-      </c>
-      <c r="E103">
-        <v>0.75</v>
-      </c>
-      <c r="F103">
-        <v>8</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103">
-        <v>1.16595</v>
-      </c>
-      <c r="I103">
-        <v>3</v>
-      </c>
-      <c r="J103">
-        <v>0.001833141602050946</v>
-      </c>
-      <c r="K103">
-        <v>0.9</v>
-      </c>
-      <c r="L103">
-        <v>0.001649827441845852</v>
-      </c>
-      <c r="M103">
-        <v>2.699959851461908E-06</v>
-      </c>
-      <c r="N103">
-        <v>0.002149761329816096</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>136</v>
-      </c>
-      <c r="C104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104">
-        <v>9</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104">
-        <v>4.46735</v>
-      </c>
-      <c r="I104">
-        <v>3</v>
-      </c>
-      <c r="J104">
-        <v>0.004292420604262938</v>
-      </c>
-      <c r="K104">
-        <v>0.9</v>
-      </c>
-      <c r="L104">
-        <v>0.003863178543836645</v>
-      </c>
-      <c r="M104">
-        <v>2.744764950328556E-06</v>
-      </c>
-      <c r="N104">
-        <v>0.01442974731896431</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>139</v>
-      </c>
-      <c r="C105" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105">
-        <v>9</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105">
-        <v>4</v>
-      </c>
-      <c r="G105" t="s">
-        <v>15</v>
-      </c>
-      <c r="H105">
-        <v>3.6109</v>
-      </c>
-      <c r="I105">
-        <v>3</v>
-      </c>
-      <c r="J105">
-        <v>0.005897988888068218</v>
-      </c>
-      <c r="K105">
-        <v>0.9</v>
-      </c>
-      <c r="L105">
-        <v>0.005308189999261396</v>
-      </c>
-      <c r="M105">
-        <v>2.426204375092531E-06</v>
-      </c>
-      <c r="N105">
-        <v>0.007386766890721614</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>140</v>
-      </c>
-      <c r="C106" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106">
-        <v>9</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106">
-        <v>5</v>
-      </c>
-      <c r="G106" t="s">
-        <v>16</v>
-      </c>
-      <c r="H106">
-        <v>3.4779</v>
-      </c>
-      <c r="I106">
-        <v>3</v>
-      </c>
-      <c r="J106">
-        <v>0.005111087360550009</v>
-      </c>
-      <c r="K106">
-        <v>0.9</v>
-      </c>
-      <c r="L106">
-        <v>0.004599978624495008</v>
-      </c>
-      <c r="M106">
-        <v>9.910656454338371E-06</v>
-      </c>
-      <c r="N106">
-        <v>0.007106925366272773</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>141</v>
-      </c>
-      <c r="C107" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107">
-        <v>9</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107">
-        <v>6</v>
-      </c>
-      <c r="G107" t="s">
-        <v>17</v>
-      </c>
-      <c r="H107">
-        <v>3.3526</v>
-      </c>
-      <c r="I107">
-        <v>3</v>
-      </c>
-      <c r="J107">
-        <v>0.007321067751176661</v>
-      </c>
-      <c r="K107">
-        <v>0.9</v>
-      </c>
-      <c r="L107">
-        <v>0.006588960976058995</v>
-      </c>
-      <c r="M107">
-        <v>5.387125535603112E-06</v>
-      </c>
-      <c r="N107">
-        <v>0.007405594076282051</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>142</v>
-      </c>
-      <c r="C108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108">
-        <v>9</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108">
-        <v>7</v>
-      </c>
-      <c r="G108" t="s">
-        <v>18</v>
-      </c>
-      <c r="H108">
-        <v>3.10065</v>
-      </c>
-      <c r="I108">
-        <v>3</v>
-      </c>
-      <c r="J108">
-        <v>0.009716789238847995</v>
-      </c>
-      <c r="K108">
-        <v>0.9</v>
-      </c>
-      <c r="L108">
-        <v>0.008745110314963197</v>
-      </c>
-      <c r="M108">
-        <v>4.186395892975327E-05</v>
-      </c>
-      <c r="N108">
-        <v>0.01085217876416503</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>143</v>
-      </c>
-      <c r="C109" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109">
-        <v>9</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109">
-        <v>8</v>
-      </c>
-      <c r="G109" t="s">
-        <v>19</v>
-      </c>
-      <c r="H109">
-        <v>1.16595</v>
-      </c>
-      <c r="I109">
-        <v>3</v>
-      </c>
-      <c r="J109">
-        <v>0.003096354145623112</v>
-      </c>
-      <c r="K109">
-        <v>0.9</v>
-      </c>
-      <c r="L109">
-        <v>0.002786718731060801</v>
-      </c>
-      <c r="M109">
-        <v>2.699959851461908E-06</v>
-      </c>
-      <c r="N109">
-        <v>0.002149761329816096</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>144</v>
-      </c>
-      <c r="C110" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110">
-        <v>9</v>
-      </c>
-      <c r="E110">
-        <v>1.25</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H110">
-        <v>4.46735</v>
-      </c>
-      <c r="I110">
-        <v>3</v>
-      </c>
-      <c r="J110">
-        <v>0.002346272071613888</v>
-      </c>
-      <c r="K110">
-        <v>0.9</v>
-      </c>
-      <c r="L110">
-        <v>0.002111644864452499</v>
-      </c>
-      <c r="M110">
-        <v>2.744764950328556E-06</v>
-      </c>
-      <c r="N110">
-        <v>0.01442974731896431</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>147</v>
-      </c>
-      <c r="C111" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111">
-        <v>9</v>
-      </c>
-      <c r="E111">
-        <v>1.25</v>
-      </c>
-      <c r="F111">
-        <v>4</v>
-      </c>
-      <c r="G111" t="s">
-        <v>15</v>
-      </c>
-      <c r="H111">
-        <v>3.6109</v>
-      </c>
-      <c r="I111">
-        <v>3</v>
-      </c>
-      <c r="J111">
-        <v>0.00440395428031404</v>
-      </c>
-      <c r="K111">
-        <v>0.9</v>
-      </c>
-      <c r="L111">
-        <v>0.003963558852282636</v>
-      </c>
-      <c r="M111">
-        <v>2.426204375092531E-06</v>
-      </c>
-      <c r="N111">
-        <v>0.007386766890721614</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>148</v>
-      </c>
-      <c r="C112" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112">
-        <v>9</v>
-      </c>
-      <c r="E112">
-        <v>1.25</v>
-      </c>
-      <c r="F112">
-        <v>5</v>
-      </c>
-      <c r="G112" t="s">
-        <v>16</v>
-      </c>
-      <c r="H112">
-        <v>3.4779</v>
-      </c>
-      <c r="I112">
-        <v>3</v>
-      </c>
-      <c r="J112">
-        <v>0.007582528815790055</v>
-      </c>
-      <c r="K112">
-        <v>0.9</v>
-      </c>
-      <c r="L112">
-        <v>0.00682427593421105</v>
-      </c>
-      <c r="M112">
-        <v>9.910656454338371E-06</v>
-      </c>
-      <c r="N112">
-        <v>0.007106925366272773</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>149</v>
-      </c>
-      <c r="C113" t="s">
-        <v>13</v>
-      </c>
-      <c r="D113">
-        <v>9</v>
-      </c>
-      <c r="E113">
-        <v>1.25</v>
-      </c>
-      <c r="F113">
-        <v>6</v>
-      </c>
-      <c r="G113" t="s">
-        <v>17</v>
-      </c>
-      <c r="H113">
-        <v>3.3526</v>
-      </c>
-      <c r="I113">
-        <v>3</v>
-      </c>
-      <c r="J113">
-        <v>0.008103056721632923</v>
-      </c>
-      <c r="K113">
-        <v>0.9</v>
-      </c>
-      <c r="L113">
-        <v>0.007292751049469631</v>
-      </c>
-      <c r="M113">
-        <v>5.387125535603112E-06</v>
-      </c>
-      <c r="N113">
-        <v>0.007405594076282051</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>150</v>
-      </c>
-      <c r="C114" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114">
-        <v>9</v>
-      </c>
-      <c r="E114">
-        <v>1.25</v>
-      </c>
-      <c r="F114">
-        <v>7</v>
-      </c>
-      <c r="G114" t="s">
-        <v>18</v>
-      </c>
-      <c r="H114">
-        <v>3.10065</v>
-      </c>
-      <c r="I114">
-        <v>3</v>
-      </c>
-      <c r="J114">
-        <v>0.01480425744520502</v>
-      </c>
-      <c r="K114">
-        <v>0.9</v>
-      </c>
-      <c r="L114">
-        <v>0.01332383170068452</v>
-      </c>
-      <c r="M114">
-        <v>4.186395892975327E-05</v>
-      </c>
-      <c r="N114">
-        <v>0.01085217876416503</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>151</v>
-      </c>
-      <c r="C115" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115">
-        <v>9</v>
-      </c>
-      <c r="E115">
-        <v>1.25</v>
-      </c>
-      <c r="F115">
-        <v>8</v>
-      </c>
-      <c r="G115" t="s">
-        <v>19</v>
-      </c>
-      <c r="H115">
-        <v>1.16595</v>
-      </c>
-      <c r="I115">
-        <v>3</v>
-      </c>
-      <c r="J115">
-        <v>0.003784851030209025</v>
-      </c>
-      <c r="K115">
-        <v>0.9</v>
-      </c>
-      <c r="L115">
-        <v>0.003406365927188123</v>
-      </c>
-      <c r="M115">
-        <v>2.699959851461908E-06</v>
-      </c>
-      <c r="N115">
-        <v>0.002149761329816096</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>152</v>
-      </c>
-      <c r="C116" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116">
-        <v>9</v>
-      </c>
-      <c r="E116">
-        <v>1.5</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116" t="s">
-        <v>14</v>
-      </c>
-      <c r="H116">
-        <v>4.46735</v>
-      </c>
-      <c r="I116">
-        <v>3</v>
-      </c>
-      <c r="J116">
-        <v>0.002835778293503151</v>
-      </c>
-      <c r="K116">
-        <v>0.9</v>
-      </c>
-      <c r="L116">
-        <v>0.002552200464152836</v>
-      </c>
-      <c r="M116">
-        <v>2.744764950328556E-06</v>
-      </c>
-      <c r="N116">
-        <v>0.01442974731896431</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>155</v>
-      </c>
-      <c r="C117" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117">
-        <v>9</v>
-      </c>
-      <c r="E117">
-        <v>1.5</v>
-      </c>
-      <c r="F117">
-        <v>4</v>
-      </c>
-      <c r="G117" t="s">
-        <v>15</v>
-      </c>
-      <c r="H117">
-        <v>3.6109</v>
-      </c>
-      <c r="I117">
-        <v>3</v>
-      </c>
-      <c r="J117">
-        <v>0.005820364534294198</v>
-      </c>
-      <c r="K117">
-        <v>0.9</v>
-      </c>
-      <c r="L117">
-        <v>0.005238328080864778</v>
-      </c>
-      <c r="M117">
-        <v>2.426204375092531E-06</v>
-      </c>
-      <c r="N117">
-        <v>0.007386766890721614</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>156</v>
-      </c>
-      <c r="C118" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118">
-        <v>9</v>
-      </c>
-      <c r="E118">
-        <v>1.5</v>
-      </c>
-      <c r="F118">
-        <v>5</v>
-      </c>
-      <c r="G118" t="s">
-        <v>16</v>
-      </c>
-      <c r="H118">
-        <v>3.4779</v>
-      </c>
-      <c r="I118">
-        <v>3</v>
-      </c>
-      <c r="J118">
-        <v>0.00570139920755326</v>
-      </c>
-      <c r="K118">
-        <v>0.9</v>
-      </c>
-      <c r="L118">
-        <v>0.005131259286797934</v>
-      </c>
-      <c r="M118">
-        <v>9.910656454338371E-06</v>
-      </c>
-      <c r="N118">
-        <v>0.007106925366272773</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>157</v>
-      </c>
-      <c r="C119" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119">
-        <v>9</v>
-      </c>
-      <c r="E119">
-        <v>1.5</v>
-      </c>
-      <c r="F119">
-        <v>6</v>
-      </c>
-      <c r="G119" t="s">
-        <v>17</v>
-      </c>
-      <c r="H119">
-        <v>3.3526</v>
-      </c>
-      <c r="I119">
-        <v>3</v>
-      </c>
-      <c r="J119">
-        <v>0.007630179588086174</v>
-      </c>
-      <c r="K119">
-        <v>0.9</v>
-      </c>
-      <c r="L119">
-        <v>0.006867161629277557</v>
-      </c>
-      <c r="M119">
-        <v>5.387125535603112E-06</v>
-      </c>
-      <c r="N119">
-        <v>0.007405594076282051</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>158</v>
-      </c>
-      <c r="C120" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120">
-        <v>9</v>
-      </c>
-      <c r="E120">
-        <v>1.5</v>
-      </c>
-      <c r="F120">
-        <v>7</v>
-      </c>
-      <c r="G120" t="s">
-        <v>18</v>
-      </c>
-      <c r="H120">
-        <v>3.10065</v>
-      </c>
-      <c r="I120">
-        <v>3</v>
-      </c>
-      <c r="J120">
-        <v>0.01095110605816826</v>
-      </c>
-      <c r="K120">
-        <v>0.9</v>
-      </c>
-      <c r="L120">
-        <v>0.009855995452351433</v>
-      </c>
-      <c r="M120">
-        <v>4.186395892975327E-05</v>
-      </c>
-      <c r="N120">
-        <v>0.01085217876416503</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>159</v>
-      </c>
-      <c r="C121" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121">
-        <v>9</v>
-      </c>
-      <c r="E121">
-        <v>1.5</v>
-      </c>
-      <c r="F121">
-        <v>8</v>
-      </c>
-      <c r="G121" t="s">
-        <v>19</v>
-      </c>
-      <c r="H121">
-        <v>1.16595</v>
-      </c>
-      <c r="I121">
-        <v>3</v>
-      </c>
-      <c r="J121">
-        <v>0.00306551160432369</v>
-      </c>
-      <c r="K121">
-        <v>0.9</v>
-      </c>
-      <c r="L121">
-        <v>0.002758960443891321</v>
-      </c>
-      <c r="M121">
-        <v>2.699959851461908E-06</v>
-      </c>
-      <c r="N121">
-        <v>0.002149761329816096</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>160</v>
-      </c>
-      <c r="C122" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122">
-        <v>9</v>
-      </c>
-      <c r="E122">
-        <v>1.75</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122" t="s">
-        <v>14</v>
-      </c>
-      <c r="H122">
-        <v>4.46735</v>
-      </c>
-      <c r="I122">
-        <v>3</v>
-      </c>
-      <c r="J122">
-        <v>0.003875547011773431</v>
-      </c>
-      <c r="K122">
-        <v>0.9</v>
-      </c>
-      <c r="L122">
-        <v>0.003487992310596088</v>
-      </c>
-      <c r="M122">
-        <v>2.744764950328556E-06</v>
-      </c>
-      <c r="N122">
-        <v>0.01442974731896431</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>163</v>
-      </c>
-      <c r="C123" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123">
-        <v>9</v>
-      </c>
-      <c r="E123">
-        <v>1.75</v>
-      </c>
-      <c r="F123">
-        <v>4</v>
-      </c>
-      <c r="G123" t="s">
-        <v>15</v>
-      </c>
-      <c r="H123">
-        <v>3.6109</v>
-      </c>
-      <c r="I123">
-        <v>3</v>
-      </c>
-      <c r="J123">
-        <v>0.006926188149564801</v>
-      </c>
-      <c r="K123">
-        <v>0.9</v>
-      </c>
-      <c r="L123">
-        <v>0.006233569334608322</v>
-      </c>
-      <c r="M123">
-        <v>2.426204375092531E-06</v>
-      </c>
-      <c r="N123">
-        <v>0.007386766890721614</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>164</v>
-      </c>
-      <c r="C124" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124">
-        <v>9</v>
-      </c>
-      <c r="E124">
-        <v>1.75</v>
-      </c>
-      <c r="F124">
-        <v>5</v>
-      </c>
-      <c r="G124" t="s">
-        <v>16</v>
-      </c>
-      <c r="H124">
-        <v>3.4779</v>
-      </c>
-      <c r="I124">
-        <v>3</v>
-      </c>
-      <c r="J124">
-        <v>0.006661307448020906</v>
-      </c>
-      <c r="K124">
-        <v>0.9</v>
-      </c>
-      <c r="L124">
-        <v>0.005995176703218815</v>
-      </c>
-      <c r="M124">
-        <v>9.910656454338371E-06</v>
-      </c>
-      <c r="N124">
-        <v>0.007106925366272773</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>165</v>
-      </c>
-      <c r="C125" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125">
-        <v>9</v>
-      </c>
-      <c r="E125">
-        <v>1.75</v>
-      </c>
-      <c r="F125">
-        <v>6</v>
-      </c>
-      <c r="G125" t="s">
-        <v>17</v>
-      </c>
-      <c r="H125">
-        <v>3.3526</v>
-      </c>
-      <c r="I125">
-        <v>3</v>
-      </c>
-      <c r="J125">
-        <v>0.007359991633870364</v>
-      </c>
-      <c r="K125">
-        <v>0.9</v>
-      </c>
-      <c r="L125">
-        <v>0.006623992470483328</v>
-      </c>
-      <c r="M125">
-        <v>5.387125535603112E-06</v>
-      </c>
-      <c r="N125">
-        <v>0.007405594076282051</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>166</v>
-      </c>
-      <c r="C126" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126">
-        <v>9</v>
-      </c>
-      <c r="E126">
-        <v>1.75</v>
-      </c>
-      <c r="F126">
-        <v>7</v>
-      </c>
-      <c r="G126" t="s">
-        <v>18</v>
-      </c>
-      <c r="H126">
-        <v>3.10065</v>
-      </c>
-      <c r="I126">
-        <v>3</v>
-      </c>
-      <c r="J126">
-        <v>0.009163474126864897</v>
-      </c>
-      <c r="K126">
-        <v>0.9</v>
-      </c>
-      <c r="L126">
-        <v>0.008247126714178408</v>
-      </c>
-      <c r="M126">
-        <v>4.186395892975327E-05</v>
-      </c>
-      <c r="N126">
-        <v>0.01085217876416503</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>167</v>
-      </c>
-      <c r="C127" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127">
-        <v>9</v>
-      </c>
-      <c r="E127">
-        <v>1.75</v>
-      </c>
-      <c r="F127">
-        <v>8</v>
-      </c>
-      <c r="G127" t="s">
-        <v>19</v>
-      </c>
-      <c r="H127">
-        <v>1.16595</v>
-      </c>
-      <c r="I127">
-        <v>3</v>
-      </c>
-      <c r="J127">
-        <v>0.004006919126924164</v>
-      </c>
-      <c r="K127">
-        <v>0.9</v>
-      </c>
-      <c r="L127">
-        <v>0.003606227214231748</v>
-      </c>
-      <c r="M127">
-        <v>2.699959851461908E-06</v>
-      </c>
-      <c r="N127">
-        <v>0.002149761329816096</v>
       </c>
     </row>
   </sheetData>
